--- a/completed/Excel_Sales_Marketing_Scorecards_Completed.xlsx
+++ b/completed/Excel_Sales_Marketing_Scorecards_Completed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/3_Create_CXO_Dashboards/Excel Scorecards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/GitHub/DSM_L0_Excel_Performance_Scorecards/completed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{B06A6211-80BB-4C8D-9FEE-45D749080E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4200295D-FC0E-4543-AEE7-C10B2B0FB9F6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{B06A6211-80BB-4C8D-9FEE-45D749080E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC87A73B-C4AD-49C7-B4E6-CABB3B173E54}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -516,16 +516,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -555,7 +555,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10648950" y="2047875"/>
+          <a:off x="9210675" y="3200400"/>
           <a:ext cx="7905750" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -578,15 +578,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -616,7 +616,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1495425" y="3267075"/>
+          <a:off x="219075" y="3181350"/>
           <a:ext cx="8943975" cy="3457575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A861E2-E235-43CE-AC0D-B1A33C91A044}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CA1F05-C979-470B-90E1-0CEE092E3BE2}">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/completed/Excel_Sales_Marketing_Scorecards_Completed.xlsx
+++ b/completed/Excel_Sales_Marketing_Scorecards_Completed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/GitHub/DSM_L0_Excel_Performance_Scorecards/completed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/3_Create_CXO_Dashboards/L0_Excel_Performance_Scorecards/completed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{B06A6211-80BB-4C8D-9FEE-45D749080E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC87A73B-C4AD-49C7-B4E6-CABB3B173E54}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{B06A6211-80BB-4C8D-9FEE-45D749080E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{311C9B33-2C91-49E0-BCDF-F6CB7D92FA92}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
+    <workbookView xWindow="34755" yWindow="675" windowWidth="21600" windowHeight="14250" activeTab="2" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -938,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A861E2-E235-43CE-AC0D-B1A33C91A044}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E553BC-EC47-4C5D-A122-7138B454D697}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CA1F05-C979-470B-90E1-0CEE092E3BE2}">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1569,7 +1569,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1616,15 +1616,15 @@
       </c>
       <c r="D5" s="8">
         <f ca="1">SUMIFS(INDIRECT($B5),QTR,D$4, INDIRECT($C$1),$D$1)</f>
-        <v>167913.24</v>
+        <v>26140.22</v>
       </c>
       <c r="E5" s="19">
         <f ca="1">SUMIFS(INDIRECT($B5),QTR,E$4, INDIRECT($C$1),$D$1)</f>
-        <v>259750.87</v>
+        <v>85175.28</v>
       </c>
       <c r="G5" s="14">
         <f ca="1">D5/E5-1</f>
-        <v>-0.35356043273310311</v>
+        <v>-0.69310086212807276</v>
       </c>
       <c r="J5" t="s">
         <v>35</v>
@@ -1639,15 +1639,15 @@
       </c>
       <c r="D6" s="9">
         <f ca="1">SUMIFS(INDIRECT($B6),QTR,D$4, INDIRECT($C$1),$D$1)</f>
-        <v>468</v>
+        <v>138</v>
       </c>
       <c r="E6" s="20">
         <f ca="1">SUMIFS(INDIRECT($B6),QTR,E$4, INDIRECT($C$1),$D$1)</f>
-        <v>559</v>
+        <v>95</v>
       </c>
       <c r="G6" s="15">
         <f ca="1">D6/E6-1</f>
-        <v>-0.16279069767441856</v>
+        <v>0.4526315789473685</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -1662,15 +1662,15 @@
       </c>
       <c r="D7" s="10">
         <f ca="1">D5/D6</f>
-        <v>358.78897435897431</v>
+        <v>189.42188405797103</v>
       </c>
       <c r="E7" s="21">
         <f ca="1">E5/E6</f>
-        <v>464.67060822898031</v>
+        <v>896.58189473684206</v>
       </c>
       <c r="G7" s="16">
         <f ca="1">D7/E7-1</f>
-        <v>-0.22786385020898425</v>
+        <v>-0.78872885436352835</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
@@ -1686,15 +1686,15 @@
       </c>
       <c r="D9" s="8">
         <f ca="1">SUMIFS(INDIRECT($B9),QTR,D$4, INDIRECT($C$1),$D$1)</f>
-        <v>1146785</v>
+        <v>153766</v>
       </c>
       <c r="E9" s="19">
         <f ca="1">SUMIFS(INDIRECT($B9),QTR,E$4, INDIRECT($C$1),$D$1)</f>
-        <v>1495570</v>
+        <v>473196</v>
       </c>
       <c r="G9" s="14">
         <f ca="1">D9/E9-1</f>
-        <v>-0.23321208636172164</v>
+        <v>-0.67504797166501829</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -1706,15 +1706,15 @@
       </c>
       <c r="D10" s="9">
         <f ca="1">SUMIFS(INDIRECT($B10),QTR,D$4, INDIRECT($C$1),$D$1)</f>
-        <v>2872</v>
+        <v>694</v>
       </c>
       <c r="E10" s="20">
         <f ca="1">SUMIFS(INDIRECT($B10),QTR,E$4, INDIRECT($C$1),$D$1)</f>
-        <v>3122</v>
+        <v>530</v>
       </c>
       <c r="G10" s="15">
         <f ca="1">D10/E10-1</f>
-        <v>-8.007687379884687E-2</v>
+        <v>0.30943396226415087</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1726,15 +1726,15 @@
       </c>
       <c r="D11" s="10">
         <f ca="1">D9/D10</f>
-        <v>399.29839832869078</v>
+        <v>221.56484149855908</v>
       </c>
       <c r="E11" s="21">
         <f ca="1">E9/E10</f>
-        <v>479.04228058936582</v>
+        <v>892.82264150943399</v>
       </c>
       <c r="G11" s="16">
         <f ca="1">D11/E11-1</f>
-        <v>-0.16646522758401638</v>
+        <v>-0.7518377881591638</v>
       </c>
     </row>
   </sheetData>
